--- a/app/static/templates/webinars_template.xlsx
+++ b/app/static/templates/webinars_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/makar/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A09EBE-466D-9E4F-B033-801EB9B4033E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725DD5B0-E279-7946-A72D-3A23D4660BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="500" windowWidth="19480" windowHeight="17360" xr2:uid="{5BF7685B-4308-F64F-95C8-C5D674AFE397}"/>
+    <workbookView xWindow="-240" yWindow="500" windowWidth="16420" windowHeight="17360" xr2:uid="{5BF7685B-4308-F64F-95C8-C5D674AFE397}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="498">
   <si>
     <t>название вебинара</t>
   </si>
@@ -50,9 +50,6 @@
     <t>номера заданий</t>
   </si>
   <si>
-    <t>решение прогой или руками</t>
-  </si>
-  <si>
     <t>номер дз</t>
   </si>
   <si>
@@ -911,9 +908,6 @@
     <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-09-18__4iwns.png</t>
   </si>
   <si>
-    <t>аа комментарий</t>
-  </si>
-  <si>
     <t>(№19, 20, 21) Теория игр. Задания на камушки. 1 и 2 кучи. Решение на бумаге.</t>
   </si>
   <si>
@@ -1215,16 +1209,347 @@
   </si>
   <si>
     <t>https://3.shkolkovo.online/lesson/28982</t>
+  </si>
+  <si>
+    <t>Разбор пробника №1</t>
+  </si>
+  <si>
+    <t>Разбор пробника №2</t>
+  </si>
+  <si>
+    <t>Разбор пробника №3</t>
+  </si>
+  <si>
+    <t>Разбор пробника №4</t>
+  </si>
+  <si>
+    <t>Разбор пробника №5</t>
+  </si>
+  <si>
+    <t>Разбор пробника №6</t>
+  </si>
+  <si>
+    <t>Разбор пробника №7</t>
+  </si>
+  <si>
+    <t>Разбор пробника №9</t>
+  </si>
+  <si>
+    <t>Разбор пробника №10</t>
+  </si>
+  <si>
+    <t>Разбор пробника №11</t>
+  </si>
+  <si>
+    <t>Разбор пробника №14</t>
+  </si>
+  <si>
+    <t>Разбор пробника №15</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26167</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26169</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26171</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26173</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26175</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26177</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26179</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28316</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28318</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28993</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28995</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29854</t>
+  </si>
+  <si>
+    <t>Разбор пробника</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/29855</t>
+  </si>
+  <si>
+    <t>разбор пробников</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-09-28__4iwo9.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-12__566gb.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-26__566g0.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-11-09__4zvty.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-11-23__4zvub.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2024-12-07__58p6t.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2024-12-21__58p70.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2025-01-18__5egtq.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2025-02-08__5onve.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2025-02-22__5onvi.jpg</t>
+  </si>
+  <si>
+    <t>(№7) Большая нарешка. Задание 7.</t>
+  </si>
+  <si>
+    <t>(№8) Большая нарешка. Задание 8.</t>
+  </si>
+  <si>
+    <t>(№3, №9, №18, №22) Большая нарешка. Задания 3, 9, 18, 22.</t>
+  </si>
+  <si>
+    <t>(№4, №11) Большая нарешка. Кодирование. Задания 4 и 11.</t>
+  </si>
+  <si>
+    <t>(№15) Большая нарешка. Алгебра логики. Задание 15.</t>
+  </si>
+  <si>
+    <t>(№17) Большая нарешка. Задание 17.</t>
+  </si>
+  <si>
+    <t>(№24, №25) Большая нарешка. Задания 24 и 25.</t>
+  </si>
+  <si>
+    <t>(№11) Большая нарешка. Задание 11. Часть 1.</t>
+  </si>
+  <si>
+    <t>(№13) Большая нарешка. Задание 13.</t>
+  </si>
+  <si>
+    <t>(№15) Большая нарешка. Задание 15.</t>
+  </si>
+  <si>
+    <t>(№9) Большая нарешка. Задание 9.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26166</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26168</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26170</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26172</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28992</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26176</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26178</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28274</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28315</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28317</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/28994</t>
+  </si>
+  <si>
+    <t>3, 9, 18, 22</t>
+  </si>
+  <si>
+    <t>нарешка</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-09-21__4iwnw.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-2024-10-05__566gg.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%9E%D1%81%D0%BD%D0%BE%D0%B2%D0%BD%D0%BE%D0%B9-2024-10-19__566g9.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-11-04__4zvtv.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-11-16__4zvu5.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-27-2024-11-30__4zvuf.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2024-12-14__58p6x.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/2024-%D0%95%D0%93%D0%AD-%D0%9E%D1%82%D0%BA%D1%80%D1%8B%D1%82%D1%8B%D0%B9%D0%92%D0%B5%D0%B1-19.12__5db65.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2025-01-11__5egto.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2025-01-25__5egtv.png</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2025-02-15__5onvg.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/%D0%95%D0%93%D0%AD-%D0%91%D0%A3-%D0%92%D0%B5%D0%B1-2025-03-08__5z8ty.png</t>
+  </si>
+  <si>
+    <t>Базовые задания ЕГЭ по информатике. 1, 3, 4, 10, 13.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/30085</t>
+  </si>
+  <si>
+    <t>1, 3, 4, 10, 13</t>
+  </si>
+  <si>
+    <t>мини-щелчок</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/30086</t>
+  </si>
+  <si>
+    <t>Базовые задания ЕГЭ по информатике. 7, 8, 11. Алгебра логики, задание 15</t>
+  </si>
+  <si>
+    <t>7, 8, 11, 15</t>
+  </si>
+  <si>
+    <t>Программирование. Переборные алгоритмы. Задания 2, 5, 6, 8, 12, 14.</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/30087</t>
+  </si>
+  <si>
+    <t>2, 5, 6, 8, 12, 14</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/30088</t>
+  </si>
+  <si>
+    <t>Электронные таблицы. Задания 3, 9, 18, 22.</t>
+  </si>
+  <si>
+    <t>Программирование. Задания 9, 17, 24, 25</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/30089</t>
+  </si>
+  <si>
+    <t>9, 17, 24, 25</t>
+  </si>
+  <si>
+    <t>Программирование. Задания 16, 23. Теория игр, задания 19, 20, 21</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/30090</t>
+  </si>
+  <si>
+    <t>16, 19, 20, 21, 23</t>
+  </si>
+  <si>
+    <t>Программирование. Задания 26, 27</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/30091</t>
+  </si>
+  <si>
+    <t>26, 27</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/2025-%D0%9C%D0%B8%D0%BD%D0%B8-%D1%89%D0%B5%D0%BB%D1%87%D0%BE%D0%BA-%D0%95%D0%93%D0%AD-%D0%98%D0%9D%D0%A4-01__69y07.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/2025-%D0%9C%D0%B8%D0%BD%D0%B8-%D1%89%D0%B5%D0%BB%D1%87%D0%BE%D0%BA-%D0%95%D0%93%D0%AD-%D0%98%D0%9D%D0%A4-02__69y3j.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/2025-%D0%9C%D0%B8%D0%BD%D0%B8-%D1%89%D0%B5%D0%BB%D1%87%D0%BE%D0%BA-%D0%95%D0%93%D0%AD-%D0%98%D0%9D%D0%A4-03__69y3k.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/2025-%D0%9C%D0%B8%D0%BD%D0%B8-%D1%89%D0%B5%D0%BB%D1%87%D0%BE%D0%BA-%D0%95%D0%93%D0%AD-%D0%98%D0%9D%D0%A4-04__69y3m.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/2025-%D0%9C%D0%B8%D0%BD%D0%B8-%D1%89%D0%B5%D0%BB%D1%87%D0%BE%D0%BA-%D0%95%D0%93%D0%AD-%D0%98%D0%9D%D0%A4-05__69y3q.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/2025-%D0%9C%D0%B8%D0%BD%D0%B8-%D1%89%D0%B5%D0%BB%D1%87%D0%BE%D0%BA-%D0%95%D0%93%D0%AD-%D0%98%D0%9D%D0%A4-06__69y3u.jpg</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/st/5/v-thumb/2025-%D0%9C%D0%B8%D0%BD%D0%B8-%D1%89%D0%B5%D0%BB%D1%87%D0%BE%D0%BA-%D0%95%D0%93%D0%AD-%D0%98%D0%9D%D0%A4-07__69y3w.jpg</t>
+  </si>
+  <si>
+    <t>🔺 Теория: 1. что такое бит 2. как устроено изображение 3. формула Хартли 4. в какую сторону округлять при дробном ответе 5. сжатые изображения (время: 01:00:00-01:10:00) 6. dpi(ppi) (время 01:11:00-01:27:00) 7. степень прозрачности  🔺 Задачи: 1.  Определить объем памяти для хранения изображения размером m*n с палитрой из К цветов.  2. Изображение размером m*n занимает в памяти I Кбайт. Определить количество цветов в палитре  3. Документы сканируются с разрешением dpi и палитрой из K цветов, размер документа - I Мбайт. Затем изменили параметры сканирования. Определить объем изображения с измененными параметрами.  4. Для хранения изображения размером m*n отведено I Кбайт. При кодировании используется i бит для определения степени прозрачности. Определить количество цветов в палитре.</t>
+  </si>
+  <si>
+    <t>№7 🔺 Теория:  кодирование звуковой информации  🔺 Задачи: 1. Файл с двухканальной звукозаписью с частотой дискретизации f кГц и i-битным разрешением занимает в памяти I Мбайт. Определить длительность записи Одноканальная звукозапись, частота дискретизации f Гц и i уровней дискретизации, длительность звукового файла t минут. Определить объем файла.  2. Звуковой файл был передан в город А за t1 с. Затем его оцифровали и передали в Б. Пропускная способность канала связи с Б в 3 раза ниже. Определить время передачи файла в город Б  №11 🔺 Теория для решения номера дана на первом вебинаре по №7.   🔺 Задачи:  1. В системе хранятся пароли пользователей. Определить объем памяти, необходимый для хранения К паролей  2. В системе хранятся пароли пользователей и доп сведения. Определить объем памяти, необходимый для хранения данных об N пользователях.  3. В системе хранятся пароли пользователей и доп сведения. Определить объем памяти, необходимый для хранения доп сведений об одном пользователе.  4. Определить максимальное количество пользователей, чьи данные можно сохранить при I байт памяти.</t>
+  </si>
+  <si>
+    <t>🔺Теория (стоит законспектировать) 1. Размещение с повторениями 2. Размещения без повторений 3. Перестановки 4. Сочетания (оливье и селедка под шубой)  ❗️ 0:28:25 - Почему нужно уметь решать №8 руками  🔺 Задачи 1️⃣ Составляются 6-буквенные слова, из букв КРОТ. Буква О используется в каждом слове ровно 1/2/3 раза. Сколько слов можно составить? 2️⃣ Составляются 6-буквенные слова, из букв КРОТ. Буквы О и У можно использовать ровно по 1 разу.  Сколько слов можно составить? 3️⃣ Составляются 4-буквенные слова из букв ЛЕТО. Буква Е используется в каждом слове хотя бы 1 раз. Сколько слов может быть составлено? 4️⃣ Составляются 5-буквенные слова из букв МУХА, буква может использовать не более 3 раз. Сколько существует таких слов, которые можно написать? 5️⃣ Составляются 5-буквенные слова из букв СЛОН. Буква О используется, но не более трёх раз.  6️⃣ Составляются слова перестановкой букв слова АДЖИКА, избегая слов с двумя подряд одинаковыми буквами.  7️⃣ Сколько существует чисел, делящихся на 5, десятичная запись которых содержит 6 цифр, причем все цифры различны и никакие две четные и две четные цифры не стоят рядом. ✨Теория вероятностей✨
+1️⃣ В колоде 36 карт. Какова вероятность того, если вытащить две карты из колоды, то эту будут две черные дамы?
+2️⃣ В колоде 36 карта. Какова вероятность того, что если вытащить 6 карта из колоды, то это будут 6 козырей?
+3️⃣ Монету подбросили 10 раз. Сколькими способами может выпасть орел?</t>
+  </si>
+  <si>
+    <t>тип решения</t>
+  </si>
+  <si>
+    <t>https://3.shkolkovo.online/lesson/26174</t>
+  </si>
+  <si>
+    <t>Excel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2137,6 +2462,284 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80E45FD-526C-7453-A1C2-F82F8A9264F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="28651200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA11E194-FB65-35BB-7087-AB3E4F575B37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="28651200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="299673"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5A97A2-F618-5340-A1B0-ECA92207CDCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16696422" y="27928349"/>
+          <a:ext cx="304800" cy="299673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="299673"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028E27D4-61C8-884B-B597-D22AD1AED371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16696422" y="27928349"/>
+          <a:ext cx="304800" cy="299673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33525A0E-E841-8C08-6140-C9C356A5137B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="31902400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27AADC8-D8A3-63DC-7670-5B992D7D49B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16687800" y="31902400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2457,10 +3060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812881EF-CBEA-904B-B985-6AFA5B4E17D6}">
-  <dimension ref="A1:J139"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="109" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2488,206 +3091,203 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>45597</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>291</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>45597</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>45597</v>
       </c>
       <c r="D4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>45699</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>45597</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>45597</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>45597</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
       </c>
       <c r="C9" s="1">
         <v>45597</v>
@@ -2696,76 +3296,76 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>45597</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>45597</v>
       </c>
       <c r="D11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
       </c>
       <c r="C12" s="1">
         <v>45551</v>
@@ -2774,7 +3374,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2783,27 +3383,30 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+      <c r="I12" t="s">
+        <v>492</v>
       </c>
       <c r="J12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
       </c>
       <c r="C13" s="1">
         <v>45552</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2812,18 +3415,21 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+      <c r="I13" t="s">
+        <v>493</v>
       </c>
       <c r="J13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
       </c>
       <c r="C14" s="1">
         <v>45553</v>
@@ -2832,7 +3438,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -2841,18 +3447,21 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+      <c r="I14" t="s">
+        <v>494</v>
       </c>
       <c r="J14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
       </c>
       <c r="C15" s="1">
         <v>45558</v>
@@ -2861,7 +3470,7 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>497</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -2870,21 +3479,21 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
       </c>
       <c r="C16" s="1">
         <v>45559</v>
@@ -2893,7 +3502,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -2902,18 +3511,18 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
       </c>
       <c r="C17" s="1">
         <v>45560</v>
@@ -2922,7 +3531,7 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>497</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -2931,30 +3540,30 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
         <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
       </c>
       <c r="C18" s="1">
         <v>45601</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18">
         <v>7</v>
@@ -2963,18 +3572,18 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
       </c>
       <c r="C19" s="1">
         <v>45565</v>
@@ -2983,7 +3592,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -2992,50 +3601,50 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
       </c>
       <c r="C20" s="1">
         <v>45588</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20">
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1">
         <v>45566</v>
       </c>
       <c r="D21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -3044,27 +3653,27 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
         <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
       </c>
       <c r="C22" s="1">
         <v>45567</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22">
         <v>9</v>
@@ -3073,27 +3682,27 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
         <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
       </c>
       <c r="C23" s="1">
         <v>45579</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -3102,18 +3711,18 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
         <v>64</v>
-      </c>
-      <c r="B24" t="s">
-        <v>65</v>
       </c>
       <c r="C24" s="1">
         <v>45580</v>
@@ -3122,7 +3731,7 @@
         <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F24">
         <v>11</v>
@@ -3131,18 +3740,18 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
         <v>66</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
       </c>
       <c r="C25" s="1">
         <v>45581</v>
@@ -3151,7 +3760,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25">
         <v>12</v>
@@ -3160,27 +3769,27 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
         <v>68</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
       </c>
       <c r="C26" s="1">
         <v>45586</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26">
         <v>13</v>
@@ -3189,27 +3798,27 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J26" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1">
         <v>45587</v>
       </c>
       <c r="D27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27">
         <v>14</v>
@@ -3218,18 +3827,18 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J27" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
         <v>72</v>
-      </c>
-      <c r="B28" t="s">
-        <v>73</v>
       </c>
       <c r="C28" s="1">
         <v>45588</v>
@@ -3238,7 +3847,7 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28">
         <v>16</v>
@@ -3247,18 +3856,18 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
         <v>74</v>
-      </c>
-      <c r="B29" t="s">
-        <v>75</v>
       </c>
       <c r="C29" s="1">
         <v>45594</v>
@@ -3267,7 +3876,7 @@
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29">
         <v>17</v>
@@ -3276,27 +3885,27 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J29" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
         <v>76</v>
-      </c>
-      <c r="B30" t="s">
-        <v>77</v>
       </c>
       <c r="C30" s="1">
         <v>45595</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>497</v>
       </c>
       <c r="F30">
         <v>18</v>
@@ -3305,21 +3914,21 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J30" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
         <v>79</v>
-      </c>
-      <c r="B31" t="s">
-        <v>80</v>
       </c>
       <c r="C31" s="1">
         <v>45600</v>
@@ -3328,7 +3937,7 @@
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31">
         <v>19</v>
@@ -3337,18 +3946,18 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J31" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B32" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C32" s="1">
         <v>45601</v>
@@ -3357,7 +3966,7 @@
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32">
         <v>20</v>
@@ -3366,27 +3975,27 @@
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
         <v>81</v>
-      </c>
-      <c r="B33" t="s">
-        <v>82</v>
       </c>
       <c r="C33" s="1">
         <v>45602</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F33">
         <v>21</v>
@@ -3395,18 +4004,18 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J33" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
         <v>84</v>
-      </c>
-      <c r="B34" t="s">
-        <v>85</v>
       </c>
       <c r="C34" s="1">
         <v>45975</v>
@@ -3415,33 +4024,33 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" t="s">
         <v>86</v>
-      </c>
-      <c r="B35" t="s">
-        <v>87</v>
       </c>
       <c r="C35" s="1">
         <v>45620</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>497</v>
       </c>
       <c r="F35">
         <v>24</v>
@@ -3450,30 +4059,30 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
         <v>89</v>
-      </c>
-      <c r="B36" t="s">
-        <v>90</v>
       </c>
       <c r="C36" s="1">
         <v>45615</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>497</v>
       </c>
       <c r="F36">
         <v>22</v>
@@ -3482,30 +4091,30 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
         <v>91</v>
-      </c>
-      <c r="B37" t="s">
-        <v>92</v>
       </c>
       <c r="C37" s="1">
         <v>45616</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37">
         <v>23</v>
@@ -3514,27 +4123,27 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J37" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
         <v>94</v>
-      </c>
-      <c r="B38" t="s">
-        <v>95</v>
       </c>
       <c r="C38" s="1">
         <v>45621</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38">
         <v>25</v>
@@ -3543,27 +4152,27 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
         <v>97</v>
-      </c>
-      <c r="B39" t="s">
-        <v>98</v>
       </c>
       <c r="C39" s="1">
         <v>45622</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F39">
         <v>26</v>
@@ -3572,30 +4181,30 @@
         <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="1">
         <v>45592</v>
       </c>
       <c r="D40" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E40" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F40">
         <v>38</v>
@@ -3604,27 +4213,27 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C41" s="1">
         <v>45623</v>
       </c>
       <c r="D41" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F41">
         <v>27</v>
@@ -3633,18 +4242,18 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J41" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s">
         <v>104</v>
-      </c>
-      <c r="B42" t="s">
-        <v>105</v>
       </c>
       <c r="C42" s="1">
         <v>45635</v>
@@ -3653,7 +4262,7 @@
         <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F42">
         <v>28</v>
@@ -3662,18 +4271,18 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J42" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
         <v>106</v>
-      </c>
-      <c r="B43" t="s">
-        <v>107</v>
       </c>
       <c r="C43" s="1">
         <v>45636</v>
@@ -3682,7 +4291,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F43">
         <v>29</v>
@@ -3691,18 +4300,18 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J43" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
         <v>108</v>
-      </c>
-      <c r="B44" t="s">
-        <v>109</v>
       </c>
       <c r="C44" s="1">
         <v>45637</v>
@@ -3711,33 +4320,33 @@
         <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F44">
         <v>30</v>
       </c>
       <c r="H44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J44" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
         <v>110</v>
-      </c>
-      <c r="B45" t="s">
-        <v>111</v>
       </c>
       <c r="C45" s="1">
         <v>45642</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F45">
         <v>31</v>
@@ -3746,18 +4355,18 @@
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J45" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
         <v>113</v>
-      </c>
-      <c r="B46" t="s">
-        <v>114</v>
       </c>
       <c r="C46" s="1">
         <v>45643</v>
@@ -3766,24 +4375,24 @@
         <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F46">
         <v>32</v>
       </c>
       <c r="H46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J46" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
         <v>115</v>
-      </c>
-      <c r="B47" t="s">
-        <v>116</v>
       </c>
       <c r="C47" s="1">
         <v>45644</v>
@@ -3792,7 +4401,7 @@
         <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F47">
         <v>33</v>
@@ -3801,18 +4410,18 @@
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J47" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
         <v>117</v>
-      </c>
-      <c r="B48" t="s">
-        <v>118</v>
       </c>
       <c r="C48" s="1">
         <v>45649</v>
@@ -3821,7 +4430,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F48">
         <v>34</v>
@@ -3830,53 +4439,53 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J48" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
         <v>119</v>
-      </c>
-      <c r="B49" t="s">
-        <v>120</v>
       </c>
       <c r="C49" s="1">
         <v>45650</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F49">
         <v>35</v>
       </c>
       <c r="H49" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J49" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
         <v>122</v>
-      </c>
-      <c r="B50" t="s">
-        <v>123</v>
       </c>
       <c r="C50" s="1">
         <v>45651</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F50">
         <v>36</v>
@@ -3885,18 +4494,18 @@
         <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J50" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
         <v>125</v>
-      </c>
-      <c r="B51" t="s">
-        <v>126</v>
       </c>
       <c r="C51" s="1">
         <v>45663</v>
@@ -3905,7 +4514,7 @@
         <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F51">
         <v>37</v>
@@ -3914,24 +4523,24 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" s="1">
         <v>45664</v>
       </c>
       <c r="D52" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F52">
         <v>38</v>
@@ -3940,18 +4549,18 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" t="s">
         <v>128</v>
-      </c>
-      <c r="B53" t="s">
-        <v>129</v>
       </c>
       <c r="C53" s="1">
         <v>45665</v>
@@ -3960,7 +4569,7 @@
         <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F53">
         <v>39</v>
@@ -3969,24 +4578,24 @@
         <v>2</v>
       </c>
       <c r="H53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" t="s">
         <v>130</v>
-      </c>
-      <c r="B54" t="s">
-        <v>131</v>
       </c>
       <c r="C54" s="1">
         <v>45671</v>
       </c>
       <c r="D54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>497</v>
       </c>
       <c r="F54">
         <v>40</v>
@@ -3995,18 +4604,18 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s">
         <v>132</v>
-      </c>
-      <c r="B55" t="s">
-        <v>133</v>
       </c>
       <c r="C55" s="1">
         <v>45672</v>
@@ -4015,7 +4624,7 @@
         <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F55">
         <v>41</v>
@@ -4024,24 +4633,24 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s">
         <v>134</v>
-      </c>
-      <c r="B56" t="s">
-        <v>135</v>
       </c>
       <c r="C56" s="1">
         <v>45677</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F56">
         <v>42</v>
@@ -4050,15 +4659,15 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
         <v>137</v>
-      </c>
-      <c r="B57" t="s">
-        <v>138</v>
       </c>
       <c r="C57" s="1">
         <v>45678</v>
@@ -4067,44 +4676,44 @@
         <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F57">
         <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" t="s">
         <v>139</v>
-      </c>
-      <c r="B58" t="s">
-        <v>140</v>
       </c>
       <c r="C58" s="1">
         <v>45679</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F58">
         <v>44</v>
       </c>
       <c r="H58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
         <v>141</v>
-      </c>
-      <c r="B59" t="s">
-        <v>142</v>
       </c>
       <c r="C59" s="1">
         <v>45684</v>
@@ -4113,7 +4722,7 @@
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F59">
         <v>45</v>
@@ -4122,15 +4731,15 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" t="s">
         <v>143</v>
-      </c>
-      <c r="B60" t="s">
-        <v>144</v>
       </c>
       <c r="C60" s="1">
         <v>45691</v>
@@ -4139,27 +4748,27 @@
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F60">
         <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J60" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" t="s">
         <v>146</v>
-      </c>
-      <c r="B61" t="s">
-        <v>147</v>
       </c>
       <c r="C61" s="1">
         <v>45692</v>
@@ -4168,7 +4777,7 @@
         <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F61">
         <v>47</v>
@@ -4177,18 +4786,18 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J61" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C62" s="1">
         <v>45693</v>
@@ -4197,24 +4806,24 @@
         <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F62">
         <v>48</v>
       </c>
       <c r="H62" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J62" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" t="s">
         <v>149</v>
-      </c>
-      <c r="B63" t="s">
-        <v>150</v>
       </c>
       <c r="C63" s="1">
         <v>45698</v>
@@ -4223,105 +4832,105 @@
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F63">
         <v>49</v>
       </c>
       <c r="H63" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J63" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" t="s">
         <v>151</v>
-      </c>
-      <c r="B64" t="s">
-        <v>152</v>
       </c>
       <c r="C64" s="1">
         <v>45699</v>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F64">
         <v>50</v>
       </c>
       <c r="H64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J64" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C65" s="1">
         <v>45700</v>
       </c>
       <c r="D65" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E65" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F65">
         <v>51</v>
       </c>
       <c r="H65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" t="s">
         <v>154</v>
-      </c>
-      <c r="B66" t="s">
-        <v>155</v>
       </c>
       <c r="C66" s="1">
         <v>45705</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>497</v>
       </c>
       <c r="F66">
         <v>52</v>
       </c>
       <c r="H66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" t="s">
         <v>156</v>
-      </c>
-      <c r="B67" t="s">
-        <v>157</v>
       </c>
       <c r="C67" s="1">
         <v>45706</v>
@@ -4330,27 +4939,27 @@
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F67">
         <v>53</v>
       </c>
       <c r="H67" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J67" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" t="s">
         <v>158</v>
-      </c>
-      <c r="B68" t="s">
-        <v>159</v>
       </c>
       <c r="C68" s="1">
         <v>45707</v>
@@ -4359,53 +4968,53 @@
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F68">
         <v>54</v>
       </c>
       <c r="H68" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J68" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" t="s">
         <v>160</v>
-      </c>
-      <c r="B69" t="s">
-        <v>161</v>
       </c>
       <c r="C69" s="1">
         <v>45712</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F69">
         <v>55</v>
       </c>
       <c r="H69" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J69" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" t="s">
         <v>163</v>
-      </c>
-      <c r="B70" t="s">
-        <v>164</v>
       </c>
       <c r="C70" s="1">
         <v>45720</v>
@@ -4414,53 +5023,53 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F70">
         <v>56</v>
       </c>
       <c r="H70" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J70" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" t="s">
         <v>165</v>
-      </c>
-      <c r="B71" t="s">
-        <v>166</v>
       </c>
       <c r="C71" s="1">
         <v>45721</v>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>497</v>
       </c>
       <c r="F71">
         <v>57</v>
       </c>
       <c r="H71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J71" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72" t="s">
         <v>167</v>
-      </c>
-      <c r="B72" t="s">
-        <v>168</v>
       </c>
       <c r="C72" s="1">
         <v>45726</v>
@@ -4469,7 +5078,7 @@
         <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F72">
         <v>58</v>
@@ -4478,41 +5087,41 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J72" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" t="s">
         <v>169</v>
-      </c>
-      <c r="B73" t="s">
-        <v>170</v>
       </c>
       <c r="C73" s="1">
         <v>45727</v>
       </c>
       <c r="D73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F73">
         <v>59</v>
       </c>
       <c r="H73" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" t="s">
         <v>172</v>
-      </c>
-      <c r="B74" t="s">
-        <v>173</v>
       </c>
       <c r="C74" s="1">
         <v>45736</v>
@@ -4521,139 +5130,139 @@
         <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F74">
         <v>63</v>
       </c>
       <c r="H74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" t="s">
         <v>174</v>
-      </c>
-      <c r="B75" t="s">
-        <v>175</v>
       </c>
       <c r="C75" s="1">
         <v>45733</v>
       </c>
       <c r="D75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F75">
         <v>60</v>
       </c>
       <c r="H75" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" t="s">
         <v>176</v>
-      </c>
-      <c r="B76" t="s">
-        <v>177</v>
       </c>
       <c r="C76" s="1">
         <v>45734</v>
       </c>
       <c r="D76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E76" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F76">
         <v>61</v>
       </c>
       <c r="H76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" t="s">
         <v>179</v>
-      </c>
-      <c r="B77" t="s">
-        <v>180</v>
       </c>
       <c r="C77" s="1">
         <v>45735</v>
       </c>
       <c r="D77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F77">
         <v>62</v>
       </c>
       <c r="H77" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78" t="s">
         <v>182</v>
-      </c>
-      <c r="B78" t="s">
-        <v>183</v>
       </c>
       <c r="C78" s="1">
         <v>45740</v>
       </c>
       <c r="D78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F78">
         <v>64</v>
       </c>
       <c r="H78" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" t="s">
         <v>185</v>
-      </c>
-      <c r="B79" t="s">
-        <v>186</v>
       </c>
       <c r="C79" s="1">
         <v>45741</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>497</v>
       </c>
       <c r="F79">
         <v>65</v>
       </c>
       <c r="H79" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" t="s">
         <v>188</v>
-      </c>
-      <c r="B80" t="s">
-        <v>189</v>
       </c>
       <c r="C80" s="1">
         <v>45742</v>
@@ -4662,21 +5271,21 @@
         <v>24</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F80">
         <v>66</v>
       </c>
       <c r="H80" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" t="s">
         <v>190</v>
-      </c>
-      <c r="B81" t="s">
-        <v>191</v>
       </c>
       <c r="C81" s="1">
         <v>45589</v>
@@ -4685,27 +5294,27 @@
         <v>26</v>
       </c>
       <c r="E81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J81" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>191</v>
+      </c>
+      <c r="B82" t="s">
         <v>192</v>
-      </c>
-      <c r="B82" t="s">
-        <v>193</v>
       </c>
       <c r="C82" s="1">
         <v>45590</v>
@@ -4714,24 +5323,24 @@
         <v>26</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F82">
         <v>2</v>
       </c>
       <c r="H82" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" t="s">
         <v>194</v>
-      </c>
-      <c r="B83" t="s">
-        <v>195</v>
       </c>
       <c r="C83" s="1">
         <v>45597</v>
@@ -4740,24 +5349,24 @@
         <v>26</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F83">
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J83" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C84" s="1">
         <v>45604</v>
@@ -4766,24 +5375,24 @@
         <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F84">
         <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J84" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B85" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C85" s="1">
         <v>45611</v>
@@ -4792,24 +5401,24 @@
         <v>26</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F85">
         <v>5</v>
       </c>
       <c r="H85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J85" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C86" s="1">
         <v>45618</v>
@@ -4818,24 +5427,24 @@
         <v>26</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F86">
         <v>6</v>
       </c>
       <c r="H86" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J86" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C87" s="1">
         <v>45632</v>
@@ -4844,24 +5453,24 @@
         <v>26</v>
       </c>
       <c r="E87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F87">
         <v>8</v>
       </c>
       <c r="H87" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J87" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C88" s="1">
         <v>45646</v>
@@ -4870,24 +5479,24 @@
         <v>26</v>
       </c>
       <c r="E88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F88">
         <v>8</v>
       </c>
       <c r="H88" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J88" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" t="s">
         <v>201</v>
-      </c>
-      <c r="B89" t="s">
-        <v>202</v>
       </c>
       <c r="C89" s="1">
         <v>45667</v>
@@ -4896,24 +5505,24 @@
         <v>26</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F89">
         <v>9</v>
       </c>
       <c r="H89" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J89" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C90" s="1">
         <v>45681</v>
@@ -4922,24 +5531,24 @@
         <v>26</v>
       </c>
       <c r="E90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F90">
         <v>10</v>
       </c>
       <c r="H90" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J90" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C91" s="1">
         <v>45702</v>
@@ -4948,24 +5557,24 @@
         <v>26</v>
       </c>
       <c r="E91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F91">
         <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J91" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C92" s="1">
         <v>45709</v>
@@ -4974,24 +5583,24 @@
         <v>26</v>
       </c>
       <c r="E92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F92">
         <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J92" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C93" s="1">
         <v>45717</v>
@@ -5000,24 +5609,24 @@
         <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F93">
         <v>15</v>
       </c>
       <c r="H93" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J93" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C94" s="1">
         <v>45725</v>
@@ -5026,24 +5635,24 @@
         <v>26</v>
       </c>
       <c r="E94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F94">
         <v>16</v>
       </c>
       <c r="H94" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J94" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C95" s="1">
         <v>45730</v>
@@ -5052,24 +5661,24 @@
         <v>26</v>
       </c>
       <c r="E95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F95">
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J95" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B96" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C96" s="1">
         <v>45735</v>
@@ -5078,24 +5687,24 @@
         <v>26</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F96">
         <v>18</v>
       </c>
       <c r="H96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J96" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C97" s="1">
         <v>45740</v>
@@ -5104,24 +5713,24 @@
         <v>26</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F97">
         <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J97" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" t="s">
         <v>211</v>
-      </c>
-      <c r="B98" t="s">
-        <v>212</v>
       </c>
       <c r="C98" s="1">
         <v>45551</v>
@@ -5130,7 +5739,7 @@
         <v>27</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -5139,18 +5748,18 @@
         <v>3</v>
       </c>
       <c r="H98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J98" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>212</v>
+      </c>
+      <c r="B99" t="s">
         <v>213</v>
-      </c>
-      <c r="B99" t="s">
-        <v>214</v>
       </c>
       <c r="C99" s="1">
         <v>45553</v>
@@ -5159,7 +5768,7 @@
         <v>27</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F99">
         <v>2</v>
@@ -5168,18 +5777,18 @@
         <v>3</v>
       </c>
       <c r="H99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J99" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" t="s">
         <v>215</v>
-      </c>
-      <c r="B100" t="s">
-        <v>216</v>
       </c>
       <c r="C100" s="1">
         <v>45558</v>
@@ -5188,7 +5797,7 @@
         <v>27</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F100">
         <v>3</v>
@@ -5197,18 +5806,18 @@
         <v>3</v>
       </c>
       <c r="H100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J100" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>216</v>
+      </c>
+      <c r="B101" t="s">
         <v>217</v>
-      </c>
-      <c r="B101" t="s">
-        <v>218</v>
       </c>
       <c r="C101" s="1">
         <v>45560</v>
@@ -5217,7 +5826,7 @@
         <v>27</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F101">
         <v>4</v>
@@ -5226,15 +5835,15 @@
         <v>3</v>
       </c>
       <c r="H101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>218</v>
+      </c>
+      <c r="B102" t="s">
         <v>219</v>
-      </c>
-      <c r="B102" t="s">
-        <v>220</v>
       </c>
       <c r="C102" s="1">
         <v>45565</v>
@@ -5243,7 +5852,7 @@
         <v>27</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F102">
         <v>5</v>
@@ -5252,15 +5861,15 @@
         <v>3</v>
       </c>
       <c r="H102" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" t="s">
         <v>221</v>
-      </c>
-      <c r="B103" t="s">
-        <v>222</v>
       </c>
       <c r="C103" s="1">
         <v>45567</v>
@@ -5269,7 +5878,7 @@
         <v>27</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F103">
         <v>6</v>
@@ -5278,18 +5887,18 @@
         <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J103" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104" t="s">
         <v>223</v>
-      </c>
-      <c r="B104" t="s">
-        <v>224</v>
       </c>
       <c r="C104" s="1">
         <v>45579</v>
@@ -5298,7 +5907,7 @@
         <v>27</v>
       </c>
       <c r="E104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F104">
         <v>7</v>
@@ -5307,21 +5916,21 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J104" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105" t="s">
         <v>225</v>
-      </c>
-      <c r="B105" t="s">
-        <v>226</v>
       </c>
       <c r="C105" s="1">
         <v>45581</v>
@@ -5330,7 +5939,7 @@
         <v>27</v>
       </c>
       <c r="E105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F105">
         <v>8</v>
@@ -5339,21 +5948,21 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J105" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>226</v>
+      </c>
+      <c r="B106" t="s">
         <v>227</v>
-      </c>
-      <c r="B106" t="s">
-        <v>228</v>
       </c>
       <c r="C106" s="1">
         <v>45586</v>
@@ -5362,7 +5971,7 @@
         <v>27</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F106">
         <v>9</v>
@@ -5371,21 +5980,21 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I106" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J106" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107" t="s">
         <v>229</v>
-      </c>
-      <c r="B107" t="s">
-        <v>230</v>
       </c>
       <c r="C107" s="1">
         <v>45588</v>
@@ -5394,7 +6003,7 @@
         <v>27</v>
       </c>
       <c r="E107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F107">
         <v>10</v>
@@ -5403,18 +6012,18 @@
         <v>3</v>
       </c>
       <c r="H107" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J107" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>230</v>
+      </c>
+      <c r="B108" t="s">
         <v>231</v>
-      </c>
-      <c r="B108" t="s">
-        <v>232</v>
       </c>
       <c r="C108" s="1">
         <v>45593</v>
@@ -5423,7 +6032,7 @@
         <v>27</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F108">
         <v>11</v>
@@ -5432,18 +6041,18 @@
         <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J108" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>232</v>
+      </c>
+      <c r="B109" t="s">
         <v>233</v>
-      </c>
-      <c r="B109" t="s">
-        <v>234</v>
       </c>
       <c r="C109" s="1">
         <v>45595</v>
@@ -5452,7 +6061,7 @@
         <v>27</v>
       </c>
       <c r="E109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F109">
         <v>12</v>
@@ -5461,18 +6070,18 @@
         <v>3</v>
       </c>
       <c r="H109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J109" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>234</v>
+      </c>
+      <c r="B110" t="s">
         <v>235</v>
-      </c>
-      <c r="B110" t="s">
-        <v>236</v>
       </c>
       <c r="C110" s="1">
         <v>45600</v>
@@ -5481,7 +6090,7 @@
         <v>27</v>
       </c>
       <c r="E110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F110">
         <v>13</v>
@@ -5490,18 +6099,18 @@
         <v>3</v>
       </c>
       <c r="H110" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J110" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>236</v>
+      </c>
+      <c r="B111" t="s">
         <v>237</v>
-      </c>
-      <c r="B111" t="s">
-        <v>238</v>
       </c>
       <c r="C111" s="1">
         <v>45602</v>
@@ -5510,7 +6119,7 @@
         <v>27</v>
       </c>
       <c r="E111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F111">
         <v>14</v>
@@ -5519,21 +6128,21 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I111" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J111" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112" t="s">
         <v>239</v>
-      </c>
-      <c r="B112" t="s">
-        <v>240</v>
       </c>
       <c r="C112" s="1">
         <v>45616</v>
@@ -5542,7 +6151,7 @@
         <v>27</v>
       </c>
       <c r="E112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F112">
         <v>15</v>
@@ -5551,18 +6160,18 @@
         <v>3</v>
       </c>
       <c r="H112" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J112" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>240</v>
+      </c>
+      <c r="B113" t="s">
         <v>241</v>
-      </c>
-      <c r="B113" t="s">
-        <v>242</v>
       </c>
       <c r="C113" s="1">
         <v>45620</v>
@@ -5571,7 +6180,7 @@
         <v>27</v>
       </c>
       <c r="E113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F113">
         <v>16</v>
@@ -5580,18 +6189,18 @@
         <v>3</v>
       </c>
       <c r="H113" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J113" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>242</v>
+      </c>
+      <c r="B114" t="s">
         <v>243</v>
-      </c>
-      <c r="B114" t="s">
-        <v>244</v>
       </c>
       <c r="C114" s="1">
         <v>45621</v>
@@ -5600,7 +6209,7 @@
         <v>27</v>
       </c>
       <c r="E114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F114">
         <v>17</v>
@@ -5609,18 +6218,18 @@
         <v>3</v>
       </c>
       <c r="H114" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J114" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>244</v>
+      </c>
+      <c r="B115" t="s">
         <v>245</v>
-      </c>
-      <c r="B115" t="s">
-        <v>246</v>
       </c>
       <c r="C115" s="1">
         <v>45623</v>
@@ -5629,7 +6238,7 @@
         <v>27</v>
       </c>
       <c r="E115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F115">
         <v>18</v>
@@ -5638,18 +6247,18 @@
         <v>3</v>
       </c>
       <c r="H115" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J115" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B116" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C116" s="1">
         <v>45635</v>
@@ -5658,7 +6267,7 @@
         <v>27</v>
       </c>
       <c r="E116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F116">
         <v>19</v>
@@ -5667,21 +6276,21 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J116" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C117" s="1">
         <v>45637</v>
@@ -5690,7 +6299,7 @@
         <v>27</v>
       </c>
       <c r="E117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F117">
         <v>20</v>
@@ -5699,21 +6308,21 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I117" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J117" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>248</v>
+      </c>
+      <c r="B118" t="s">
         <v>249</v>
-      </c>
-      <c r="B118" t="s">
-        <v>250</v>
       </c>
       <c r="C118" s="1">
         <v>45642</v>
@@ -5722,7 +6331,7 @@
         <v>27</v>
       </c>
       <c r="E118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F118">
         <v>21</v>
@@ -5731,18 +6340,18 @@
         <v>3</v>
       </c>
       <c r="H118" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J118" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>250</v>
+      </c>
+      <c r="B119" t="s">
         <v>251</v>
-      </c>
-      <c r="B119" t="s">
-        <v>252</v>
       </c>
       <c r="C119" s="1">
         <v>45644</v>
@@ -5751,7 +6360,7 @@
         <v>27</v>
       </c>
       <c r="E119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F119">
         <v>22</v>
@@ -5760,18 +6369,18 @@
         <v>3</v>
       </c>
       <c r="H119" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J119" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>252</v>
+      </c>
+      <c r="B120" t="s">
         <v>253</v>
-      </c>
-      <c r="B120" t="s">
-        <v>254</v>
       </c>
       <c r="C120" s="1">
         <v>45649</v>
@@ -5780,7 +6389,7 @@
         <v>27</v>
       </c>
       <c r="E120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F120">
         <v>23</v>
@@ -5789,18 +6398,18 @@
         <v>3</v>
       </c>
       <c r="H120" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J120" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>254</v>
+      </c>
+      <c r="B121" t="s">
         <v>255</v>
-      </c>
-      <c r="B121" t="s">
-        <v>256</v>
       </c>
       <c r="C121" s="1">
         <v>45663</v>
@@ -5809,7 +6418,7 @@
         <v>27</v>
       </c>
       <c r="E121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F121">
         <v>24</v>
@@ -5818,18 +6427,18 @@
         <v>2</v>
       </c>
       <c r="H121" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>257</v>
+      </c>
+      <c r="B122" t="s">
         <v>258</v>
-      </c>
-      <c r="B122" t="s">
-        <v>259</v>
       </c>
       <c r="C122" s="1">
         <v>45665</v>
@@ -5838,7 +6447,7 @@
         <v>27</v>
       </c>
       <c r="E122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F122">
         <v>25</v>
@@ -5847,18 +6456,18 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>259</v>
+      </c>
+      <c r="B123" t="s">
         <v>260</v>
-      </c>
-      <c r="B123" t="s">
-        <v>261</v>
       </c>
       <c r="C123" s="1">
         <v>45672</v>
@@ -5867,7 +6476,7 @@
         <v>27</v>
       </c>
       <c r="E123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F123">
         <v>26</v>
@@ -5876,18 +6485,18 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I123" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>261</v>
+      </c>
+      <c r="B124" t="s">
         <v>262</v>
-      </c>
-      <c r="B124" t="s">
-        <v>263</v>
       </c>
       <c r="C124" s="1">
         <v>45677</v>
@@ -5896,7 +6505,7 @@
         <v>27</v>
       </c>
       <c r="E124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F124">
         <v>27</v>
@@ -5905,15 +6514,15 @@
         <v>3</v>
       </c>
       <c r="H124" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>263</v>
+      </c>
+      <c r="B125" t="s">
         <v>264</v>
-      </c>
-      <c r="B125" t="s">
-        <v>265</v>
       </c>
       <c r="C125" s="1">
         <v>45679</v>
@@ -5922,7 +6531,7 @@
         <v>27</v>
       </c>
       <c r="E125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F125">
         <v>28</v>
@@ -5931,15 +6540,15 @@
         <v>3</v>
       </c>
       <c r="H125" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>265</v>
+      </c>
+      <c r="B126" t="s">
         <v>266</v>
-      </c>
-      <c r="B126" t="s">
-        <v>267</v>
       </c>
       <c r="C126" s="1">
         <v>45690</v>
@@ -5948,7 +6557,7 @@
         <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F126">
         <v>29</v>
@@ -5957,18 +6566,18 @@
         <v>1</v>
       </c>
       <c r="H126" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I126" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B127" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C127" s="1">
         <v>45691</v>
@@ -5977,7 +6586,7 @@
         <v>27</v>
       </c>
       <c r="E127" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F127">
         <v>30</v>
@@ -5986,21 +6595,21 @@
         <v>2</v>
       </c>
       <c r="H127" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I127" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J127" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B128" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C128" s="1">
         <v>45693</v>
@@ -6009,7 +6618,7 @@
         <v>27</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F128">
         <v>31</v>
@@ -6018,21 +6627,21 @@
         <v>2</v>
       </c>
       <c r="H128" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J128" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B129" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C129" s="1">
         <v>45698</v>
@@ -6041,7 +6650,7 @@
         <v>27</v>
       </c>
       <c r="E129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F129">
         <v>32</v>
@@ -6050,21 +6659,21 @@
         <v>2</v>
       </c>
       <c r="H129" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I129" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J129" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B130" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C130" s="1">
         <v>45700</v>
@@ -6073,7 +6682,7 @@
         <v>27</v>
       </c>
       <c r="E130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F130">
         <v>33</v>
@@ -6082,21 +6691,21 @@
         <v>2</v>
       </c>
       <c r="H130" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J130" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B131" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C131" s="1">
         <v>45705</v>
@@ -6105,7 +6714,7 @@
         <v>27</v>
       </c>
       <c r="E131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F131">
         <v>34</v>
@@ -6114,21 +6723,21 @@
         <v>2</v>
       </c>
       <c r="H131" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I131" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J131" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B132" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C132" s="1">
         <v>45707</v>
@@ -6137,7 +6746,7 @@
         <v>27</v>
       </c>
       <c r="E132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F132">
         <v>35</v>
@@ -6146,21 +6755,21 @@
         <v>2</v>
       </c>
       <c r="H132" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J132" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B133" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C133" s="1">
         <v>45712</v>
@@ -6169,7 +6778,7 @@
         <v>27</v>
       </c>
       <c r="E133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F133">
         <v>36</v>
@@ -6178,21 +6787,21 @@
         <v>2</v>
       </c>
       <c r="H133" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I133" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J133" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B134" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C134" s="1">
         <v>45721</v>
@@ -6201,7 +6810,7 @@
         <v>27</v>
       </c>
       <c r="E134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F134">
         <v>37</v>
@@ -6210,21 +6819,21 @@
         <v>2</v>
       </c>
       <c r="H134" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I134" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J134" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C135" s="1">
         <v>45726</v>
@@ -6233,7 +6842,7 @@
         <v>27</v>
       </c>
       <c r="E135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F135">
         <v>38</v>
@@ -6242,21 +6851,21 @@
         <v>2</v>
       </c>
       <c r="H135" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I135" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J135" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B136" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C136" s="1">
         <v>45736</v>
@@ -6265,7 +6874,7 @@
         <v>27</v>
       </c>
       <c r="E136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F136">
         <v>40</v>
@@ -6274,21 +6883,21 @@
         <v>2</v>
       </c>
       <c r="H136" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I136" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J136" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>276</v>
+      </c>
+      <c r="B137" t="s">
         <v>277</v>
-      </c>
-      <c r="B137" t="s">
-        <v>278</v>
       </c>
       <c r="C137" s="1">
         <v>45733</v>
@@ -6297,7 +6906,7 @@
         <v>27</v>
       </c>
       <c r="E137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F137">
         <v>39</v>
@@ -6306,59 +6915,718 @@
         <v>2</v>
       </c>
       <c r="H137" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I137" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B138" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D138">
         <v>27</v>
       </c>
       <c r="E138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G138">
         <v>2</v>
       </c>
       <c r="H138" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I138" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" t="s">
         <v>280</v>
-      </c>
-      <c r="B139" t="s">
-        <v>281</v>
       </c>
       <c r="D139">
         <v>27</v>
       </c>
       <c r="E139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G139">
         <v>2</v>
       </c>
       <c r="H139" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I139" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>391</v>
+      </c>
+      <c r="B140" t="s">
+        <v>403</v>
+      </c>
+      <c r="C140" s="1">
+        <v>45563</v>
+      </c>
+      <c r="H140" t="s">
+        <v>417</v>
+      </c>
+      <c r="J140" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>392</v>
+      </c>
+      <c r="B141" t="s">
+        <v>404</v>
+      </c>
+      <c r="C141" s="1">
+        <v>45577</v>
+      </c>
+      <c r="H141" t="s">
+        <v>417</v>
+      </c>
+      <c r="J141" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>393</v>
+      </c>
+      <c r="B142" t="s">
+        <v>405</v>
+      </c>
+      <c r="C142" s="1">
+        <v>45591</v>
+      </c>
+      <c r="H142" t="s">
+        <v>417</v>
+      </c>
+      <c r="J142" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>394</v>
+      </c>
+      <c r="B143" t="s">
+        <v>406</v>
+      </c>
+      <c r="C143" s="1">
+        <v>45605</v>
+      </c>
+      <c r="H143" t="s">
+        <v>417</v>
+      </c>
+      <c r="J143" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>395</v>
+      </c>
+      <c r="B144" t="s">
+        <v>407</v>
+      </c>
+      <c r="C144" s="1">
+        <v>45619</v>
+      </c>
+      <c r="H144" t="s">
+        <v>417</v>
+      </c>
+      <c r="J144" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>396</v>
+      </c>
+      <c r="B145" t="s">
+        <v>408</v>
+      </c>
+      <c r="C145" s="1">
+        <v>45633</v>
+      </c>
+      <c r="H145" t="s">
+        <v>417</v>
+      </c>
+      <c r="J145" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>397</v>
+      </c>
+      <c r="B146" t="s">
+        <v>409</v>
+      </c>
+      <c r="C146" s="1">
+        <v>45647</v>
+      </c>
+      <c r="H146" t="s">
+        <v>417</v>
+      </c>
+      <c r="J146" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>398</v>
+      </c>
+      <c r="B147" t="s">
+        <v>410</v>
+      </c>
+      <c r="C147" s="1">
+        <v>45675</v>
+      </c>
+      <c r="H147" t="s">
+        <v>417</v>
+      </c>
+      <c r="J147" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>399</v>
+      </c>
+      <c r="B148" t="s">
+        <v>411</v>
+      </c>
+      <c r="C148" s="1">
+        <v>45696</v>
+      </c>
+      <c r="H148" t="s">
+        <v>417</v>
+      </c>
+      <c r="J148" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>400</v>
+      </c>
+      <c r="B149" t="s">
+        <v>412</v>
+      </c>
+      <c r="C149" s="1">
+        <v>45710</v>
+      </c>
+      <c r="H149" t="s">
+        <v>417</v>
+      </c>
+      <c r="J149" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>401</v>
+      </c>
+      <c r="B150" t="s">
+        <v>413</v>
+      </c>
+      <c r="C150" s="1">
+        <v>45731</v>
+      </c>
+      <c r="H150" t="s">
+        <v>417</v>
+      </c>
+      <c r="J150" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>402</v>
+      </c>
+      <c r="B151" t="s">
+        <v>414</v>
+      </c>
+      <c r="C151" s="1">
+        <v>45738</v>
+      </c>
+      <c r="H151" t="s">
+        <v>417</v>
+      </c>
+      <c r="J151" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>415</v>
+      </c>
+      <c r="B152" t="s">
+        <v>416</v>
+      </c>
+      <c r="C152" s="1">
+        <v>45745</v>
+      </c>
+      <c r="H152" t="s">
+        <v>417</v>
+      </c>
+      <c r="J152" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>428</v>
+      </c>
+      <c r="B153" t="s">
+        <v>439</v>
+      </c>
+      <c r="C153" s="1">
+        <v>45556</v>
+      </c>
+      <c r="D153">
+        <v>7</v>
+      </c>
+      <c r="E153" t="s">
+        <v>34</v>
+      </c>
+      <c r="H153" t="s">
+        <v>451</v>
+      </c>
+      <c r="J153" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>429</v>
+      </c>
+      <c r="B154" t="s">
+        <v>440</v>
+      </c>
+      <c r="C154" s="1">
+        <v>45570</v>
+      </c>
+      <c r="D154">
+        <v>8</v>
+      </c>
+      <c r="E154" t="s">
+        <v>298</v>
+      </c>
+      <c r="H154" t="s">
+        <v>451</v>
+      </c>
+      <c r="J154" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>430</v>
+      </c>
+      <c r="B155" t="s">
+        <v>441</v>
+      </c>
+      <c r="C155" s="1">
+        <v>45584</v>
+      </c>
+      <c r="D155" t="s">
+        <v>450</v>
+      </c>
+      <c r="E155" t="s">
+        <v>34</v>
+      </c>
+      <c r="H155" t="s">
+        <v>451</v>
+      </c>
+      <c r="J155" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>431</v>
+      </c>
+      <c r="B156" t="s">
+        <v>442</v>
+      </c>
+      <c r="C156" s="1">
+        <v>45598</v>
+      </c>
+      <c r="D156" t="s">
+        <v>161</v>
+      </c>
+      <c r="E156" t="s">
+        <v>34</v>
+      </c>
+      <c r="H156" t="s">
+        <v>451</v>
+      </c>
+      <c r="J156" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>432</v>
+      </c>
+      <c r="B157" t="s">
+        <v>496</v>
+      </c>
+      <c r="C157" s="1">
+        <v>45612</v>
+      </c>
+      <c r="D157">
+        <v>15</v>
+      </c>
+      <c r="E157" t="s">
+        <v>34</v>
+      </c>
+      <c r="H157" t="s">
+        <v>451</v>
+      </c>
+      <c r="J157" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>433</v>
+      </c>
+      <c r="B158" t="s">
+        <v>444</v>
+      </c>
+      <c r="C158" s="1">
+        <v>45626</v>
+      </c>
+      <c r="D158">
+        <v>17</v>
+      </c>
+      <c r="E158" t="s">
+        <v>45</v>
+      </c>
+      <c r="H158" t="s">
+        <v>451</v>
+      </c>
+      <c r="J158" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>434</v>
+      </c>
+      <c r="B159" t="s">
+        <v>445</v>
+      </c>
+      <c r="C159" s="1">
+        <v>45640</v>
+      </c>
+      <c r="D159" t="s">
+        <v>120</v>
+      </c>
+      <c r="E159" t="s">
+        <v>45</v>
+      </c>
+      <c r="H159" t="s">
+        <v>451</v>
+      </c>
+      <c r="J159" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>435</v>
+      </c>
+      <c r="B160" t="s">
+        <v>446</v>
+      </c>
+      <c r="C160" s="1">
+        <v>45645</v>
+      </c>
+      <c r="D160">
+        <v>11</v>
+      </c>
+      <c r="E160" t="s">
+        <v>34</v>
+      </c>
+      <c r="H160" t="s">
+        <v>451</v>
+      </c>
+      <c r="J160" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>436</v>
+      </c>
+      <c r="B161" t="s">
+        <v>447</v>
+      </c>
+      <c r="C161" s="1">
+        <v>45668</v>
+      </c>
+      <c r="D161">
+        <v>13</v>
+      </c>
+      <c r="E161" t="s">
+        <v>34</v>
+      </c>
+      <c r="H161" t="s">
+        <v>451</v>
+      </c>
+      <c r="J161" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>429</v>
+      </c>
+      <c r="B162" t="s">
+        <v>448</v>
+      </c>
+      <c r="C162" s="1">
+        <v>45682</v>
+      </c>
+      <c r="D162">
+        <v>8</v>
+      </c>
+      <c r="E162" t="s">
+        <v>298</v>
+      </c>
+      <c r="H162" t="s">
+        <v>451</v>
+      </c>
+      <c r="J162" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>437</v>
+      </c>
+      <c r="B163" t="s">
+        <v>443</v>
+      </c>
+      <c r="C163" s="1">
+        <v>45703</v>
+      </c>
+      <c r="D163">
+        <v>15</v>
+      </c>
+      <c r="E163" t="s">
+        <v>34</v>
+      </c>
+      <c r="H163" t="s">
+        <v>451</v>
+      </c>
+      <c r="J163" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>438</v>
+      </c>
+      <c r="B164" t="s">
+        <v>449</v>
+      </c>
+      <c r="C164" s="1">
+        <v>45724</v>
+      </c>
+      <c r="D164">
+        <v>9</v>
+      </c>
+      <c r="E164" t="s">
+        <v>45</v>
+      </c>
+      <c r="H164" t="s">
+        <v>451</v>
+      </c>
+      <c r="J164" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>464</v>
+      </c>
+      <c r="B165" t="s">
+        <v>465</v>
+      </c>
+      <c r="C165" s="1">
+        <v>45748</v>
+      </c>
+      <c r="D165" t="s">
+        <v>466</v>
+      </c>
+      <c r="E165" t="s">
+        <v>34</v>
+      </c>
+      <c r="H165" t="s">
+        <v>467</v>
+      </c>
+      <c r="J165" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>469</v>
+      </c>
+      <c r="B166" t="s">
+        <v>468</v>
+      </c>
+      <c r="C166" s="1">
+        <v>45749</v>
+      </c>
+      <c r="D166" t="s">
+        <v>470</v>
+      </c>
+      <c r="E166" t="s">
+        <v>34</v>
+      </c>
+      <c r="H166" t="s">
+        <v>467</v>
+      </c>
+      <c r="J166" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>471</v>
+      </c>
+      <c r="B167" t="s">
+        <v>472</v>
+      </c>
+      <c r="C167" s="1">
+        <v>45750</v>
+      </c>
+      <c r="D167" t="s">
+        <v>473</v>
+      </c>
+      <c r="E167" t="s">
+        <v>45</v>
+      </c>
+      <c r="H167" t="s">
+        <v>467</v>
+      </c>
+      <c r="J167" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>475</v>
+      </c>
+      <c r="B168" t="s">
+        <v>474</v>
+      </c>
+      <c r="C168" s="1">
+        <v>45751</v>
+      </c>
+      <c r="D168" t="s">
+        <v>450</v>
+      </c>
+      <c r="E168" t="s">
+        <v>34</v>
+      </c>
+      <c r="H168" t="s">
+        <v>467</v>
+      </c>
+      <c r="J168" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>476</v>
+      </c>
+      <c r="B169" t="s">
+        <v>477</v>
+      </c>
+      <c r="C169" s="1">
+        <v>45752</v>
+      </c>
+      <c r="D169" t="s">
+        <v>478</v>
+      </c>
+      <c r="E169" t="s">
+        <v>45</v>
+      </c>
+      <c r="H169" t="s">
+        <v>467</v>
+      </c>
+      <c r="J169" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>479</v>
+      </c>
+      <c r="B170" t="s">
+        <v>480</v>
+      </c>
+      <c r="C170" s="1">
+        <v>45753</v>
+      </c>
+      <c r="D170" t="s">
+        <v>481</v>
+      </c>
+      <c r="E170" t="s">
+        <v>45</v>
+      </c>
+      <c r="H170" t="s">
+        <v>467</v>
+      </c>
+      <c r="J170" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>482</v>
+      </c>
+      <c r="B171" t="s">
+        <v>483</v>
+      </c>
+      <c r="C171" s="1">
+        <v>45754</v>
+      </c>
+      <c r="D171" t="s">
+        <v>484</v>
+      </c>
+      <c r="E171" t="s">
+        <v>45</v>
+      </c>
+      <c r="H171" t="s">
+        <v>467</v>
+      </c>
+      <c r="J171" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
